--- a/biology/Histoire de la zoologie et de la botanique/Albert_von_Kölliker/Albert_von_Kölliker.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Albert_von_Kölliker/Albert_von_Kölliker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Albert_von_K%C3%B6lliker</t>
+          <t>Albert_von_Kölliker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolph Albert von Kölliker, né le 6 juillet 1817 à Zurich et mort le 2 novembre 1905 à Wurtzbourg, est un médecin, anatomiste, histologiste, physiologiste, neuroscientifique et zoologiste suisse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Albert_von_K%C3%B6lliker</t>
+          <t>Albert_von_Kölliker</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il commence ses études de médecine à Zurich en 1836. Au bout de deux ans, il se rend à l'université de Bonn, et plus tard à celle de Berlin où il devient l'élève de Johannes Peter Müller et de Friedrich Gustav Jakob Henle. Il obtint un graduat en philosophie à Zurich en 1841, et en médecine à Heidelberg en 1842.
 Son premier emploi académique fut celui de prosecteur (assistant chargé des dissections d'anatomie) auprès de Henle. Cet emploi fut de courte durée car en 1844 l'université de Zurich lui proposa la chaire de professeur extraordinaire de physiologie et d'anatomie comparative qu'il occupa trois ans. En 1847 l'université de Wurtzbourg lui offrit le poste de professeur de physiologie et d'anatomie microscopique et comparative. Kolliker accepta l'offre et demeura ensuite à Wurtzbourg jusqu'à la fin de sa vie.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Albert_von_K%C3%B6lliker</t>
+          <t>Albert_von_Kölliker</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Liste de ses contributions en histologie (non exhaustive)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscle lisse et strié
 Peau
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Albert_von_K%C3%B6lliker</t>
+          <t>Albert_von_Kölliker</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Handbuch der Gewebelehre (1852), trad. en fr. « Anatomie des tissus de l’homme » (1853).
 Über die Darwin'sche Schöpfungstheorie (1864)
